--- a/Tableau Sample Data.xlsx
+++ b/Tableau Sample Data.xlsx
@@ -1,24 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbremmer/Documents/TableauSamplesRepo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
-    <sheet name="Territory" sheetId="2" r:id="rId2"/>
-    <sheet name="Market Potential by Territory" sheetId="3" r:id="rId3"/>
-    <sheet name="Market Potential by Product" sheetId="4" r:id="rId4"/>
-    <sheet name="Store Locations" sheetId="5" r:id="rId5"/>
+    <sheet name="Customers" sheetId="8" r:id="rId2"/>
+    <sheet name="Products" sheetId="7" r:id="rId3"/>
+    <sheet name="Territory" sheetId="2" r:id="rId4"/>
+    <sheet name="Distribution Centers" sheetId="6" r:id="rId5"/>
+    <sheet name="Market Potential by Territory" sheetId="3" r:id="rId6"/>
+    <sheet name="Market Potential by Product" sheetId="4" r:id="rId7"/>
+    <sheet name="Store Locations" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="274">
   <si>
     <t>GM</t>
   </si>
@@ -129,6 +145,717 @@
   </si>
   <si>
     <t>TOTAL MARKET POTENTIAL</t>
+  </si>
+  <si>
+    <t>AREA NAME</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>DISTRBUTION CENTER</t>
+  </si>
+  <si>
+    <t>STATE/PROVINCE</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>LOS ANGELES</t>
+  </si>
+  <si>
+    <t>TACOMA</t>
+  </si>
+  <si>
+    <t>WICHATA</t>
+  </si>
+  <si>
+    <t>MINNEAPOLIS</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>CHESTER</t>
+  </si>
+  <si>
+    <t>PENNSYLVANIA</t>
+  </si>
+  <si>
+    <t>SAVANNAH</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>TORONTO</t>
+  </si>
+  <si>
+    <t>ONTARIO</t>
+  </si>
+  <si>
+    <t>EDMONTON</t>
+  </si>
+  <si>
+    <t>ALBERTA</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>LOS ANGELES DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>TACOMA DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>WICHATA DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>MINNEAPOLIS DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>CHESTER DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>SAVANNAH DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>TORONTO DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>EDMONTON DISTRIBUTION CENTER</t>
+  </si>
+  <si>
+    <t>LOS</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>WIC</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>SAV</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>EDM</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>C100</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>A110</t>
+  </si>
+  <si>
+    <t>A111</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B103</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B105</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>C105</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>C108</t>
+  </si>
+  <si>
+    <t>C109</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>C111</t>
+  </si>
+  <si>
+    <t>C112</t>
+  </si>
+  <si>
+    <t>C113</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>G100</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D103</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
+    <t>D105</t>
+  </si>
+  <si>
+    <t>D106</t>
+  </si>
+  <si>
+    <t>D107</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>E104</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E106</t>
+  </si>
+  <si>
+    <t>E107</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>E109</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>E111</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>G101</t>
+  </si>
+  <si>
+    <t>G102</t>
+  </si>
+  <si>
+    <t>G103</t>
+  </si>
+  <si>
+    <t>G104</t>
+  </si>
+  <si>
+    <t>PHILADELPHIA</t>
+  </si>
+  <si>
+    <t>HARRISBURGH</t>
+  </si>
+  <si>
+    <t>BINGHAMTON</t>
+  </si>
+  <si>
+    <t>BUFFALO</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>BRICK</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>STAMFORD</t>
+  </si>
+  <si>
+    <t>ALBANY</t>
+  </si>
+  <si>
+    <t>BERWICK</t>
+  </si>
+  <si>
+    <t>BOSTON</t>
+  </si>
+  <si>
+    <t>PROVINCE</t>
+  </si>
+  <si>
+    <t>CONNECTICUT</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>ELECTRONICS SUPERSTORE</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>PRODUCT GROUP NAME</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
+  </si>
+  <si>
+    <t>LIST PRICE</t>
+  </si>
+  <si>
+    <t>COMPUTERS</t>
+  </si>
+  <si>
+    <t>COMPUTER ACCESSORIES</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>PRODUCT GROUP ID</t>
+  </si>
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>COM15</t>
+  </si>
+  <si>
+    <t>CAS23</t>
+  </si>
+  <si>
+    <t>AUD38</t>
+  </si>
+  <si>
+    <t>EMD50</t>
+  </si>
+  <si>
+    <t>EMD51</t>
+  </si>
+  <si>
+    <t>EMD52</t>
+  </si>
+  <si>
+    <t>EMD53</t>
+  </si>
+  <si>
+    <t>EMD54</t>
+  </si>
+  <si>
+    <t>EMD55</t>
+  </si>
+  <si>
+    <t>EMD56</t>
+  </si>
+  <si>
+    <t>EMD57</t>
+  </si>
+  <si>
+    <t>EMD58</t>
+  </si>
+  <si>
+    <t>EMD59</t>
+  </si>
+  <si>
+    <t>EMD60</t>
+  </si>
+  <si>
+    <t>EMD61</t>
+  </si>
+  <si>
+    <t>EMD62</t>
+  </si>
+  <si>
+    <t>EMD63</t>
+  </si>
+  <si>
+    <t>EMD64</t>
+  </si>
+  <si>
+    <t>EMD65</t>
+  </si>
+  <si>
+    <t>EMD66</t>
+  </si>
+  <si>
+    <t>EMD67</t>
+  </si>
+  <si>
+    <t>EMD68</t>
+  </si>
+  <si>
+    <t>EMD69</t>
+  </si>
+  <si>
+    <t>EMD70</t>
+  </si>
+  <si>
+    <t>EMD71</t>
+  </si>
+  <si>
+    <t>EMD72</t>
+  </si>
+  <si>
+    <t>EMD73</t>
+  </si>
+  <si>
+    <t>EMD74</t>
+  </si>
+  <si>
+    <t>EMD75</t>
+  </si>
+  <si>
+    <t>EMD76</t>
+  </si>
+  <si>
+    <t>EMD77</t>
+  </si>
+  <si>
+    <t>EMD78</t>
+  </si>
+  <si>
+    <t>EMD79</t>
+  </si>
+  <si>
+    <t>EMD80</t>
+  </si>
+  <si>
+    <t>EMD81</t>
+  </si>
+  <si>
+    <t>EMD82</t>
+  </si>
+  <si>
+    <t>EMD83</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>ITEM ID</t>
+  </si>
+  <si>
+    <t>LIST GM</t>
+  </si>
+  <si>
+    <t>Use data from other viz on public - or generate a new dataset from that website.</t>
   </si>
 </sst>
 </file>
@@ -164,8 +891,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,12 +951,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -258,12 +986,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -470,30 +1198,30 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -543,628 +1271,628 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K2">
         <f ca="1">RANDBETWEEN(1, 1000)</f>
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="L2">
         <f ca="1">K2*(1+RAND())</f>
-        <v>338.68980103276306</v>
+        <v>195.03634510623633</v>
       </c>
       <c r="M2">
         <f ca="1">ROUND(RAND()*RANDBETWEEN(10,500), 0)</f>
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="N2">
         <f ca="1">M2*L2</f>
-        <v>4741.6572144586826</v>
+        <v>20673.85258126105</v>
       </c>
       <c r="O2">
         <f ca="1">N2-(K2*M2)</f>
-        <v>513.65721445868257</v>
+        <v>7317.8525812610496</v>
       </c>
       <c r="P2">
         <f ca="1">O2/(K2*M2)</f>
-        <v>0.1214894073932551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.54790750084314532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K3">
         <f t="shared" ref="K3:K25" ca="1" si="0">RANDBETWEEN(1, 1000)</f>
-        <v>51</v>
+        <v>838</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L25" ca="1" si="1">K3*(1+RAND())</f>
-        <v>60.038094267901322</v>
+        <v>1449.3380527982927</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M25" ca="1" si="2">ROUND(RAND()*RANDBETWEEN(10,500), 0)</f>
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N25" ca="1" si="3">M3*L3</f>
-        <v>4322.7427872888948</v>
+        <v>31885.43716156244</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O25" ca="1" si="4">N3-(K3*M3)</f>
-        <v>650.74278728889476</v>
+        <v>13449.43716156244</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P25" ca="1" si="5">O3/(K3*M3)</f>
-        <v>0.1772175346647317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.72952034940130395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>536</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>1470.1196649844037</v>
+        <v>877.89003139462102</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="3"/>
-        <v>60274.90626436055</v>
+        <v>79887.99285691051</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="4"/>
-        <v>23169.90626436055</v>
+        <v>31111.99285691051</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62444161876729687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.63785453618399435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>895</v>
+        <v>198</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>1477.9747785502495</v>
+        <v>342.88039072535366</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>349</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="3"/>
-        <v>180312.92298313044</v>
+        <v>119665.25636314842</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="4"/>
-        <v>71122.92298313044</v>
+        <v>50563.256363148423</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6513684676539101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.73171914507754365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>583.3903968083855</v>
+        <v>71.221150837446075</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>21002.054285101876</v>
+        <v>1566.8653184238137</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="4"/>
-        <v>1094.0542851018763</v>
+        <v>554.86531842381373</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4955509599250364E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.54828588777056697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>94.933069092960693</v>
+        <v>541.64223223923216</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>1518.9291054873711</v>
+        <v>70413.49019110018</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>222.92910548737109</v>
+        <v>11653.49019110018</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17201319867852707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.19832352265316847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>809.16665528260762</v>
+        <v>1048.16376470619</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="2"/>
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="3"/>
-        <v>130275.83150049983</v>
+        <v>258896.44988242895</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="4"/>
-        <v>29650.831500499829</v>
+        <v>96370.449882428948</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29466664845217222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.59295404970545607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>707.44463547410351</v>
+        <v>418.4918732952973</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="3"/>
-        <v>38202.01031560159</v>
+        <v>17576.658678402488</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="4"/>
-        <v>18168.01031560159</v>
+        <v>7832.6586784024876</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90685885572534641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.80384428144524711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>718</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.503060472645652</v>
+        <v>1347.7826139451874</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="3"/>
-        <v>115.56426992555869</v>
+        <v>149603.87014791582</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="4"/>
-        <v>52.56426992555869</v>
+        <v>69905.870147915819</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83435349088188393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.87713455981223898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>715</v>
+        <v>200</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>1316.4343910680864</v>
+        <v>247.21096733727873</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="3"/>
-        <v>134276.30788894481</v>
+        <v>69466.281821775323</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="4"/>
-        <v>61346.307888944808</v>
+        <v>13266.281821775323</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8411669805148061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.23605483668639365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>915</v>
+        <v>822</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>1806.5311902480682</v>
+        <v>918.21725875356242</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="3"/>
-        <v>5419.593570744205</v>
+        <v>41319.776643910307</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="4"/>
-        <v>2674.593570744205</v>
+        <v>4329.776643910307</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97435102759351733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.11705262622087881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>132</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>798.7647076368786</v>
+        <v>258.51653698337407</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="3"/>
-        <v>73486.353102592824</v>
+        <v>19130.22373676968</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="4"/>
-        <v>24450.353102592824</v>
+        <v>9362.2237367696798</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49862046460952819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.95845861351040951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
+        <v>822</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>1370.0406327825492</v>
+        <v>831.99684402480568</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>1370.0406327825492</v>
+        <v>24959.905320744172</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="4"/>
-        <v>399.04063278254921</v>
+        <v>299.90532074417206</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41095842717049352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.21616107357734E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>523</v>
+        <v>324</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>958.14816994679541</v>
+        <v>435.25715009495372</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>71861.112746009661</v>
+        <v>43525.715009495369</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="4"/>
-        <v>32636.112746009661</v>
+        <v>11125.715009495369</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83202326949674088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.34338626572516567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>273</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>1093.9929203284523</v>
+        <v>434.54190562350999</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="3"/>
-        <v>383991.51503528678</v>
+        <v>96033.761142795702</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="4"/>
-        <v>179007.51503528678</v>
+        <v>35700.761142795702</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8732755485076239</v>
-      </c>
-    </row>
-    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.59172859202750905</v>
+      </c>
+    </row>
+    <row r="17" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>655.1768680418121</v>
+        <v>667.40687804845231</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>3931.0612082508724</v>
+        <v>44716.260829246305</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="4"/>
-        <v>1063.0612082508724</v>
+        <v>21601.260829246305</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37066290385316331</v>
-      </c>
-    </row>
-    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.93451268999551396</v>
+      </c>
+    </row>
+    <row r="18" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K18">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>741</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>1124.3619508535567</v>
+        <v>1055.4147664472366</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>395775.40670045197</v>
+        <v>53826.153088809064</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="4"/>
-        <v>194079.40670045197</v>
+        <v>16035.153088809064</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96223726152453182</v>
-      </c>
-    </row>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.42431142570477265</v>
+      </c>
+    </row>
+    <row r="19" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K19">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>391.61331701492497</v>
+        <v>355.58537504573496</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>3132.9065361193998</v>
+        <v>144012.07689352267</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="4"/>
-        <v>1076.9065361193998</v>
+        <v>47217.076893522666</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52378722573900771</v>
-      </c>
-    </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.48780491650935137</v>
+      </c>
+    </row>
+    <row r="20" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K20">
         <f t="shared" ca="1" si="0"/>
-        <v>696</v>
+        <v>168</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>1002.8743380841265</v>
+        <v>189.21019386205708</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="3"/>
-        <v>230661.0977593491</v>
+        <v>40680.191680342272</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="4"/>
-        <v>70581.097759349097</v>
+        <v>4560.1916803422719</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44091140529328521</v>
-      </c>
-    </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.12625115394081593</v>
+      </c>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>648</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>1396.9182329060407</v>
+        <v>927.98225490463176</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="3"/>
-        <v>25144.528192308731</v>
+        <v>23199.556372615792</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="4"/>
-        <v>8944.5281923087314</v>
+        <v>6999.5563726157925</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55213136989560074</v>
-      </c>
-    </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.43207138102566622</v>
+      </c>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>724</v>
+        <v>194</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>952.35919765769347</v>
+        <v>319.64887076084784</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="3"/>
-        <v>106664.23013766167</v>
+        <v>31645.238205323938</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="4"/>
-        <v>25576.230137661667</v>
+        <v>12439.238205323938</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31541325643327828</v>
-      </c>
-    </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.64767459155076212</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K23">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>622</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>411.89157628963591</v>
+        <v>819.78744271312473</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="3"/>
-        <v>96794.520428064439</v>
+        <v>42628.947021082487</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="4"/>
-        <v>33579.520428064439</v>
+        <v>10284.947021082487</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53119545089083986</v>
-      </c>
-    </row>
-    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.31798624230405909</v>
+      </c>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K24">
         <f t="shared" ca="1" si="0"/>
-        <v>812</v>
+        <v>317</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>1409.68776836859</v>
+        <v>513.25020429803226</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="3"/>
-        <v>387664.13630136225</v>
+        <v>145763.05802064115</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="4"/>
-        <v>164364.13630136225</v>
+        <v>55735.058020641154</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73606868025688421</v>
-      </c>
-    </row>
-    <row r="25" spans="11:16" x14ac:dyDescent="0.25">
+        <v>0.61908581797486506</v>
+      </c>
+    </row>
+    <row r="25" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K25">
         <f t="shared" ca="1" si="0"/>
-        <v>765</v>
+        <v>911</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>1446.6281598371374</v>
+        <v>1446.9169968753547</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="3"/>
-        <v>131643.16254517951</v>
+        <v>117200.27674690374</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="4"/>
-        <v>62028.162545179512</v>
+        <v>43409.276746903735</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89101720240148696</v>
+        <v>0.58827332258546072</v>
       </c>
     </row>
   </sheetData>
@@ -1176,36 +1904,2891 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(B2, "-", E2)</f>
+        <v>AUD38-001</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2">
+        <f>H2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE(B3, "-", E3)</f>
+        <v>AUD38-002</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3">
+        <f>H3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE(B4, "-", E4)</f>
+        <v>AUD38-003</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4">
+        <f>H4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE(B5, "-", E5)</f>
+        <v>AUD38-004</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5">
+        <f>H5*F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(B6, "-", E6)</f>
+        <v>AUD38-005</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6">
+        <f>H6*F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE(B7, "-", E7)</f>
+        <v>AUD38-006</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7">
+        <f>H7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(B8, "-", E8)</f>
+        <v>AUD38-007</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8">
+        <f>H8*F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE(B9, "-", E9)</f>
+        <v>AUD38-008</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9">
+        <f>H9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE(B10, "-", E10)</f>
+        <v>AUD38-009</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10">
+        <f>H10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE(B11, "-", E11)</f>
+        <v>AUD38-010</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11">
+        <f>H11*F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE(B12, "-", E12)</f>
+        <v>AUD38-011</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12">
+        <f>H12*F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE(B13, "-", E13)</f>
+        <v>AUD38-012</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13">
+        <f>H13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE(B14, "-", E14)</f>
+        <v>AUD38-013</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14">
+        <f>H14*F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE(B15, "-", E15)</f>
+        <v>AUD38-014</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G15">
+        <f>H15*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="str">
+        <f>CONCATENATE(B16, "-", E16)</f>
+        <v>AUD38-015</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16">
+        <f>H16*F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE(B17, "-", E17)</f>
+        <v>AUD38-016</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17">
+        <f>H17*F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CONCATENATE(B18, "-", E18)</f>
+        <v>AUD38-017</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18">
+        <f>H18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE(B19, "-", E19)</f>
+        <v>AUD38-018</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19">
+        <f>H19*F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" t="str">
+        <f>CONCATENATE(B20, "-", E20)</f>
+        <v>AUD38-019</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20">
+        <f>H20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE(B21, "-", E21)</f>
+        <v>AUD38-020</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21">
+        <f>H21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" t="str">
+        <f>CONCATENATE(B22, "-", E22)</f>
+        <v>AUD38-021</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22">
+        <f>H22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="str">
+        <f>CONCATENATE(B23, "-", E23)</f>
+        <v>AUD38-022</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23">
+        <f>H23*F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="str">
+        <f>CONCATENATE(B24, "-", E24)</f>
+        <v>AUD38-023</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24">
+        <f>H24*F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="str">
+        <f>CONCATENATE(B25, "-", E25)</f>
+        <v>CAS23-001</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25">
+        <f>H25*F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" t="str">
+        <f>CONCATENATE(B26, "-", E26)</f>
+        <v>CAS23-002</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26">
+        <f>H26*F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" t="str">
+        <f>CONCATENATE(B27, "-", E27)</f>
+        <v>CAS23-003</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27">
+        <f>H27*F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE(B28, "-", E28)</f>
+        <v>CAS23-004</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28">
+        <f>H28*F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="str">
+        <f>CONCATENATE(B29, "-", E29)</f>
+        <v>CAS23-005</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29">
+        <f>H29*F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.35199999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE(B30, "-", E30)</f>
+        <v>CAS23-006</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30">
+        <f>H30*F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE(B31, "-", E31)</f>
+        <v>CAS23-007</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31">
+        <f>H31*F31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE(B32, "-", E32)</f>
+        <v>CAS23-008</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32">
+        <f>H32*F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE(B33, "-", E33)</f>
+        <v>CAS23-009</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33">
+        <f>H33*F33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" t="str">
+        <f>CONCATENATE(B34, "-", E34)</f>
+        <v>CAS23-010</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34">
+        <f>H34*F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" t="str">
+        <f>CONCATENATE(B35, "-", E35)</f>
+        <v>CAS23-011</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35">
+        <f>H35*F35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="str">
+        <f>CONCATENATE(B36, "-", E36)</f>
+        <v>CAS23-012</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36">
+        <f>H36*F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" t="str">
+        <f>CONCATENATE(B37, "-", E37)</f>
+        <v>CAS23-013</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37">
+        <f>H37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" t="str">
+        <f>CONCATENATE(B38, "-", E38)</f>
+        <v>CAS23-014</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38">
+        <f>H38*F38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="str">
+        <f>CONCATENATE(B39, "-", E39)</f>
+        <v>CAS23-015</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39">
+        <f>H39*F39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="str">
+        <f>CONCATENATE(B40, "-", E40)</f>
+        <v>CAS23-016</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40">
+        <f>H40*F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="str">
+        <f>CONCATENATE(B41, "-", E41)</f>
+        <v>CAS23-017</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41">
+        <f>H41*F41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="str">
+        <f>CONCATENATE(B42, "-", E42)</f>
+        <v>CAS23-018</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42">
+        <f>H42*F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="str">
+        <f>CONCATENATE(B43, "-", E43)</f>
+        <v>CAS23-019</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43">
+        <f>H43*F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="str">
+        <f>CONCATENATE(B44, "-", E44)</f>
+        <v>CAS23-020</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44">
+        <f>H44*F44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" t="str">
+        <f>CONCATENATE(B45, "-", E45)</f>
+        <v>CAS23-021</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45">
+        <f>H45*F45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" t="str">
+        <f>CONCATENATE(B46, "-", E46)</f>
+        <v>CAS23-022</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G46">
+        <f>H46*F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="str">
+        <f>CONCATENATE(B47, "-", E47)</f>
+        <v>CAS23-023</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47">
+        <f>H47*F47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" t="str">
+        <f>CONCATENATE(B48, "-", E48)</f>
+        <v>CAS23-024</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48">
+        <f>H48*F48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="str">
+        <f>CONCATENATE(B49, "-", E49)</f>
+        <v>CAS23-025</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49">
+        <f>H49*F49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" t="str">
+        <f>CONCATENATE(B50, "-", E50)</f>
+        <v>CAS23-026</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50">
+        <f>H50*F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" t="str">
+        <f>CONCATENATE(B51, "-", E51)</f>
+        <v>CAS23-027</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G51">
+        <f>H51*F51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="str">
+        <f>CONCATENATE(B52, "-", E52)</f>
+        <v>CAS23-028</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52">
+        <f>H52*F52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" t="str">
+        <f>CONCATENATE(B53, "-", E53)</f>
+        <v>CAS23-029</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53">
+        <f>H53*F53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" t="str">
+        <f>CONCATENATE(B54, "-", E54)</f>
+        <v>CAS23-030</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54">
+        <f>H54*F54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" t="str">
+        <f>CONCATENATE(B55, "-", E55)</f>
+        <v>CAS23-031</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G55">
+        <f>H55*F55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" t="str">
+        <f>CONCATENATE(B56, "-", E56)</f>
+        <v>CAS23-032</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56">
+        <f>H56*F56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" t="str">
+        <f>CONCATENATE(B57, "-", E57)</f>
+        <v>CAS23-033</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57">
+        <f>H57*F57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="str">
+        <f>CONCATENATE(B58, "-", E58)</f>
+        <v>CAS23-034</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58">
+        <f>H58*F58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" t="str">
+        <f>CONCATENATE(B59, "-", E59)</f>
+        <v>CAS23-035</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59">
+        <f>H59*F59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" t="str">
+        <f>CONCATENATE(B60, "-", E60)</f>
+        <v>CAS23-036</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60">
+        <f>H60*F60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="str">
+        <f>CONCATENATE(B61, "-", E61)</f>
+        <v>CAS23-037</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61">
+        <f>H61*F61</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="str">
+        <f>CONCATENATE(B62, "-", E62)</f>
+        <v>CAS23-038</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G62">
+        <f>H62*F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" t="str">
+        <f>CONCATENATE(B63, "-", E63)</f>
+        <v>CAS23-039</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G63">
+        <f>H63*F63</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" t="str">
+        <f>CONCATENATE(B64, "-", E64)</f>
+        <v>CAS23-040</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64">
+        <f>H64*F64</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" t="str">
+        <f>CONCATENATE(B65, "-", E65)</f>
+        <v>CAS23-041</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G65">
+        <f>H65*F65</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" t="str">
+        <f>CONCATENATE(B66, "-", E66)</f>
+        <v>COM15-001</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66">
+        <f>H66*F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="str">
+        <f>CONCATENATE(B67, "-", E67)</f>
+        <v>COM15-002</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67">
+        <f>H67*F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="str">
+        <f>CONCATENATE(B68, "-", E68)</f>
+        <v>COM15-003</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68">
+        <f>H68*F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" t="str">
+        <f>CONCATENATE(B69, "-", E69)</f>
+        <v>COM15-004</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69">
+        <f>H69*F69</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" t="str">
+        <f>CONCATENATE(B70, "-", E70)</f>
+        <v>COM15-005</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70">
+        <f>H70*F70</f>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="str">
+        <f>CONCATENATE(B71, "-", E71)</f>
+        <v>COM15-006</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71">
+        <f>H71*F71</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="str">
+        <f>CONCATENATE(B72, "-", E72)</f>
+        <v>COM15-007</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72">
+        <f>H72*F72</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" t="str">
+        <f>CONCATENATE(B73, "-", E73)</f>
+        <v>COM15-008</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73">
+        <f>H73*F73</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" t="str">
+        <f>CONCATENATE(B74, "-", E74)</f>
+        <v>COM15-009</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74">
+        <f>H74*F74</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="str">
+        <f>CONCATENATE(B75, "-", E75)</f>
+        <v>COM15-010</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75">
+        <f>H75*F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="str">
+        <f>CONCATENATE(B76, "-", E76)</f>
+        <v>COM15-011</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76">
+        <f>H76*F76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="str">
+        <f>CONCATENATE(B77, "-", E77)</f>
+        <v>COM15-012</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77">
+        <f>H77*F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" t="str">
+        <f>CONCATENATE(B78, "-", E78)</f>
+        <v>COM15-013</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78">
+        <f>H78*F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" t="str">
+        <f>CONCATENATE(B79, "-", E79)</f>
+        <v>COM15-014</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G79">
+        <f>H79*F79</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" t="str">
+        <f>CONCATENATE(B80, "-", E80)</f>
+        <v>COM15-015</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G80">
+        <f>H80*F80</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" t="str">
+        <f>CONCATENATE(B81, "-", E81)</f>
+        <v>COM15-016</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G81">
+        <f>H81*F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="str">
+        <f>CONCATENATE(B82, "-", E82)</f>
+        <v>COM15-017</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G82">
+        <f>H82*F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="str">
+        <f>CONCATENATE(B83, "-", E83)</f>
+        <v>COM15-018</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83">
+        <f>H83*F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="str">
+        <f>CONCATENATE(B84, "-", E84)</f>
+        <v>COM15-019</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G84">
+        <f>H84*F84</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" t="str">
+        <f>CONCATENATE(B85, "-", E85)</f>
+        <v>COM15-020</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85">
+        <f>H85*F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="str">
+        <f>CONCATENATE(B86, "-", E86)</f>
+        <v>COM15-021</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G86">
+        <f>H86*F86</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" t="str">
+        <f>CONCATENATE(B87, "-", E87)</f>
+        <v>COM15-022</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G87">
+        <f>H87*F87</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" t="str">
+        <f>CONCATENATE(B88, "-", E88)</f>
+        <v>COM15-023</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G88">
+        <f>H88*F88</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" t="str">
+        <f>CONCATENATE(B89, "-", E89)</f>
+        <v>COM15-024</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89">
+        <f>H89*F89</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" t="str">
+        <f>CONCATENATE(B90, "-", E90)</f>
+        <v>COM15-025</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90">
+        <f>H90*F90</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="str">
+        <f>CONCATENATE(B91, "-", E91)</f>
+        <v>COM15-026</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G91">
+        <f>H91*F91</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" t="str">
+        <f>CONCATENATE(B92, "-", E92)</f>
+        <v>COM15-027</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92">
+        <f>H92*F92</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" t="str">
+        <f>CONCATENATE(B93, "-", E93)</f>
+        <v>COM15-028</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93">
+        <f>H93*F93</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" t="str">
+        <f>CONCATENATE(B94, "-", E94)</f>
+        <v>COM15-029</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94">
+        <f>H94*F94</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" t="str">
+        <f>CONCATENATE(B95, "-", E95)</f>
+        <v>EMD50-001</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95">
+        <f>H95*F95</f>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" t="str">
+        <f>CONCATENATE(B96, "-", E96)</f>
+        <v>EMD51-002</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G96">
+        <f>H96*F96</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" t="str">
+        <f>CONCATENATE(B97, "-", E97)</f>
+        <v>EMD52-003</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97">
+        <f>H97*F97</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" t="str">
+        <f>CONCATENATE(B98, "-", E98)</f>
+        <v>EMD53-004</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G98">
+        <f>H98*F98</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" t="str">
+        <f>CONCATENATE(B99, "-", E99)</f>
+        <v>EMD54-005</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G99">
+        <f>H99*F99</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" t="str">
+        <f>CONCATENATE(B100, "-", E100)</f>
+        <v>EMD55-006</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100">
+        <f>H100*F100</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" t="str">
+        <f>CONCATENATE(B101, "-", E101)</f>
+        <v>EMD56-007</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G101">
+        <f>H101*F101</f>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" t="str">
+        <f>CONCATENATE(B102, "-", E102)</f>
+        <v>EMD57-008</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102">
+        <f>H102*F102</f>
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" t="str">
+        <f>CONCATENATE(B103, "-", E103)</f>
+        <v>EMD58-009</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G103">
+        <f>H103*F103</f>
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" t="str">
+        <f>CONCATENATE(B104, "-", E104)</f>
+        <v>EMD59-010</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G104">
+        <f>H104*F104</f>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="str">
+        <f>CONCATENATE(B105, "-", E105)</f>
+        <v>EMD60-011</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105">
+        <f>H105*F105</f>
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="str">
+        <f>CONCATENATE(B106, "-", E106)</f>
+        <v>EMD61-012</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G106">
+        <f>H106*F106</f>
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="str">
+        <f>CONCATENATE(B107, "-", E107)</f>
+        <v>EMD62-013</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G107">
+        <f>H107*F107</f>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="str">
+        <f>CONCATENATE(B108, "-", E108)</f>
+        <v>EMD63-014</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108">
+        <f>H108*F108</f>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="str">
+        <f>CONCATENATE(B109, "-", E109)</f>
+        <v>EMD64-015</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G109">
+        <f>H109*F109</f>
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" t="str">
+        <f>CONCATENATE(B110, "-", E110)</f>
+        <v>EMD65-016</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G110">
+        <f>H110*F110</f>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" t="str">
+        <f>CONCATENATE(B111, "-", E111)</f>
+        <v>EMD66-017</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111">
+        <f>H111*F111</f>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" t="str">
+        <f>CONCATENATE(B112, "-", E112)</f>
+        <v>EMD67-018</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G112">
+        <f>H112*F112</f>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="str">
+        <f>CONCATENATE(B113, "-", E113)</f>
+        <v>EMD68-019</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G113">
+        <f>H113*F113</f>
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="str">
+        <f>CONCATENATE(B114, "-", E114)</f>
+        <v>EMD69-020</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114">
+        <f>H114*F114</f>
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" t="str">
+        <f>CONCATENATE(B115, "-", E115)</f>
+        <v>EMD70-021</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115">
+        <f>H115*F115</f>
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" t="str">
+        <f>CONCATENATE(B116, "-", E116)</f>
+        <v>EMD71-022</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G116">
+        <f>H116*F116</f>
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="str">
+        <f>CONCATENATE(B117, "-", E117)</f>
+        <v>EMD72-023</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G117">
+        <f>H117*F117</f>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="str">
+        <f>CONCATENATE(B118, "-", E118)</f>
+        <v>EMD73-024</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G118">
+        <f>H118*F118</f>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" t="str">
+        <f>CONCATENATE(B119, "-", E119)</f>
+        <v>EMD74-025</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G119">
+        <f>H119*F119</f>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" t="str">
+        <f>CONCATENATE(B120, "-", E120)</f>
+        <v>EMD75-026</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G120">
+        <f>H120*F120</f>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" t="str">
+        <f>CONCATENATE(B121, "-", E121)</f>
+        <v>EMD76-027</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G121">
+        <f>H121*F121</f>
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="str">
+        <f>CONCATENATE(B122, "-", E122)</f>
+        <v>EMD77-028</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G122">
+        <f>H122*F122</f>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="str">
+        <f>CONCATENATE(B123, "-", E123)</f>
+        <v>EMD78-029</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123">
+        <f>H123*F123</f>
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" t="str">
+        <f>CONCATENATE(B124, "-", E124)</f>
+        <v>EMD79-030</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G124">
+        <f>H124*F124</f>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>190</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" t="str">
+        <f>CONCATENATE(B125, "-", E125)</f>
+        <v>EMD80-031</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G125">
+        <f>H125*F125</f>
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" t="str">
+        <f>CONCATENATE(B126, "-", E126)</f>
+        <v>EMD81-032</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G126">
+        <f>H126*F126</f>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127" t="str">
+        <f>CONCATENATE(B127, "-", E127)</f>
+        <v>EMD82-033</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G127">
+        <f>H127*F127</f>
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" t="str">
+        <f>CONCATENATE(B128, "-", E128)</f>
+        <v>EMD83-034</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G128">
+        <f>H128*F128</f>
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H128">
+    <sortCondition ref="D2:D128"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1213,57 +4796,34 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K2">
-        <v>2570</v>
-      </c>
-      <c r="L2">
-        <v>5100</v>
-      </c>
-      <c r="M2">
-        <v>3580</v>
-      </c>
-      <c r="N2">
-        <v>1950</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +4831,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>2570</v>
+      </c>
+      <c r="L2">
+        <v>5100</v>
+      </c>
+      <c r="M2">
+        <v>3580</v>
+      </c>
+      <c r="N2">
+        <v>1950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1279,16 +5115,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1310,22 +5146,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
@@ -1344,6 +5190,846 @@
       </c>
       <c r="H1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("JOE'S ELECTRONICS OF ", E2)</f>
+        <v>JOE'S ELECTRONICS OF PHILADELPHIA</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">CONCATENATE("JOE'S ELECTRONICS OF ", E3)</f>
+        <v>JOE'S ELECTRONICS OF HARRISBURGH</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF BINGHAMTON</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF BUFFALO</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF NEW YORK</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF BRICK</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF STAMFORD</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF ALBANY</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF BERWICK</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF BOSTON</v>
+      </c>
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>JOE'S ELECTRONICS OF PROVINCE</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
